--- a/C++2DBasis001/data/MAP/map.xlsx
+++ b/C++2DBasis001/data/MAP/map.xlsx
@@ -10,7 +10,7 @@
     <sheet name="map" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">map!$A$1:$FD$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">map!$A$1:$FD$18</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FL16"/>
+  <dimension ref="A1:FL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O1" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="BN1" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="CP18" sqref="CP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -472,34 +472,34 @@
         <v>1</v>
       </c>
       <c r="AL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="1">
         <v>1</v>
@@ -514,25 +514,25 @@
         <v>1</v>
       </c>
       <c r="AZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="1">
         <v>1</v>
@@ -580,61 +580,61 @@
         <v>1</v>
       </c>
       <c r="BV1" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN1" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CO1" s="1">
         <v>1</v>
@@ -840,30 +840,14 @@
       <c r="FD1" s="1">
         <v>1</v>
       </c>
-      <c r="FE1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FF1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FG1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FH1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FI1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FJ1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FK1" s="1">
-        <v>1</v>
-      </c>
-      <c r="FL1" s="1">
-        <v>1</v>
-      </c>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
     </row>
     <row r="2" spans="1:168" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
@@ -1086,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1140,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CO2">
         <v>0</v>
@@ -1568,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -1622,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CO3">
         <v>0</v>
@@ -2050,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2104,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CO4">
         <v>0</v>
@@ -2376,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2469,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2532,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2586,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -2858,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -2957,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -3014,61 +2998,61 @@
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -3125,6 +3109,9 @@
         <v>0</v>
       </c>
       <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
@@ -3337,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -3750,7 +3737,7 @@
       <c r="FC7">
         <v>0</v>
       </c>
-      <c r="FD7" s="1">
+      <c r="FD7">
         <v>1</v>
       </c>
     </row>
@@ -3819,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -4232,7 +4219,7 @@
       <c r="FC8">
         <v>0</v>
       </c>
-      <c r="FD8" s="1">
+      <c r="FD8">
         <v>1</v>
       </c>
     </row>
@@ -4301,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -4783,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -4795,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -5056,6 +5043,9 @@
         <v>0</v>
       </c>
       <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
         <v>0</v>
       </c>
       <c r="DK10">
@@ -5262,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -5271,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -5367,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -5424,55 +5414,55 @@
         <v>0</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY11">
         <v>0</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA11">
         <v>0</v>
       </c>
       <c r="CB11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE11">
         <v>0</v>
       </c>
       <c r="CF11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG11">
         <v>0</v>
       </c>
       <c r="CH11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI11">
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK11">
         <v>0</v>
       </c>
       <c r="CL11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM11">
         <v>0</v>
       </c>
       <c r="CN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -5750,14 +5740,14 @@
         <v>0</v>
       </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>6</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AA12">
         <v>0</v>
       </c>
@@ -5891,70 +5881,70 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -6159,30 +6149,6 @@
       </c>
       <c r="FD12" s="1">
         <v>1</v>
-      </c>
-      <c r="FE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="FL12" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:168" x14ac:dyDescent="0.4">
@@ -6253,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -6665,27 +6631,6 @@
       </c>
       <c r="FD13" s="1">
         <v>1</v>
-      </c>
-      <c r="FE13">
-        <v>0</v>
-      </c>
-      <c r="FF13">
-        <v>0</v>
-      </c>
-      <c r="FG13">
-        <v>0</v>
-      </c>
-      <c r="FH13">
-        <v>0</v>
-      </c>
-      <c r="FI13">
-        <v>0</v>
-      </c>
-      <c r="FJ13">
-        <v>0</v>
-      </c>
-      <c r="FK13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:168" x14ac:dyDescent="0.4">
@@ -6753,14 +6698,14 @@
         <v>0</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>6</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
@@ -7169,27 +7114,14 @@
       <c r="FD14" s="1">
         <v>1</v>
       </c>
-      <c r="FE14">
-        <v>0</v>
-      </c>
-      <c r="FF14">
-        <v>0</v>
-      </c>
-      <c r="FG14">
-        <v>0</v>
-      </c>
-      <c r="FH14">
-        <v>0</v>
-      </c>
-      <c r="FI14">
-        <v>0</v>
-      </c>
-      <c r="FJ14">
-        <v>0</v>
-      </c>
-      <c r="FK14">
-        <v>0</v>
-      </c>
+      <c r="FE14" s="1"/>
+      <c r="FF14" s="1"/>
+      <c r="FG14" s="1"/>
+      <c r="FH14" s="1"/>
+      <c r="FI14" s="1"/>
+      <c r="FJ14" s="1"/>
+      <c r="FK14" s="1"/>
+      <c r="FL14" s="1"/>
     </row>
     <row r="15" spans="1:168" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -7241,26 +7173,26 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>6</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
       <c r="X15">
         <v>0</v>
       </c>
@@ -7343,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -7671,514 +7603,1460 @@
       </c>
       <c r="FD15" s="1">
         <v>1</v>
-      </c>
-      <c r="FE15">
-        <v>0</v>
-      </c>
-      <c r="FF15">
-        <v>0</v>
-      </c>
-      <c r="FG15">
-        <v>0</v>
-      </c>
-      <c r="FH15">
-        <v>0</v>
-      </c>
-      <c r="FI15">
-        <v>0</v>
-      </c>
-      <c r="FJ15">
-        <v>0</v>
-      </c>
-      <c r="FK15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:168" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="X16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DN16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16">
+        <v>0</v>
+      </c>
+      <c r="DT16">
+        <v>0</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16">
+        <v>0</v>
+      </c>
+      <c r="DW16">
+        <v>0</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16">
+        <v>0</v>
+      </c>
+      <c r="DZ16">
+        <v>0</v>
+      </c>
+      <c r="EA16">
+        <v>0</v>
+      </c>
+      <c r="EB16">
+        <v>0</v>
+      </c>
+      <c r="EC16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
+      </c>
+      <c r="EL16">
+        <v>0</v>
+      </c>
+      <c r="EM16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>0</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EP16">
+        <v>0</v>
+      </c>
+      <c r="EQ16">
+        <v>0</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
+        <v>0</v>
+      </c>
+      <c r="ET16">
+        <v>0</v>
+      </c>
+      <c r="EU16">
+        <v>0</v>
+      </c>
+      <c r="EV16">
+        <v>0</v>
+      </c>
+      <c r="EW16">
+        <v>0</v>
+      </c>
+      <c r="EX16">
+        <v>0</v>
+      </c>
+      <c r="EY16">
+        <v>0</v>
+      </c>
+      <c r="EZ16">
+        <v>0</v>
+      </c>
+      <c r="FA16">
+        <v>0</v>
+      </c>
+      <c r="FB16">
+        <v>0</v>
+      </c>
+      <c r="FC16">
+        <v>0</v>
+      </c>
+      <c r="FD16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:160" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>3</v>
+      </c>
+      <c r="BJ17">
+        <v>3</v>
+      </c>
+      <c r="BK17">
+        <v>3</v>
+      </c>
+      <c r="BL17">
+        <v>3</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>3</v>
+      </c>
+      <c r="BT17">
+        <v>3</v>
+      </c>
+      <c r="BU17">
+        <v>3</v>
+      </c>
+      <c r="BV17">
+        <v>3</v>
+      </c>
+      <c r="BW17">
+        <v>3</v>
+      </c>
+      <c r="BX17">
+        <v>3</v>
+      </c>
+      <c r="BY17">
+        <v>3</v>
+      </c>
+      <c r="BZ17">
+        <v>3</v>
+      </c>
+      <c r="CA17">
+        <v>3</v>
+      </c>
+      <c r="CB17">
+        <v>3</v>
+      </c>
+      <c r="CC17">
+        <v>3</v>
+      </c>
+      <c r="CD17">
+        <v>3</v>
+      </c>
+      <c r="CE17">
+        <v>3</v>
+      </c>
+      <c r="CF17">
+        <v>3</v>
+      </c>
+      <c r="CG17">
+        <v>3</v>
+      </c>
+      <c r="CH17">
+        <v>3</v>
+      </c>
+      <c r="CI17">
+        <v>3</v>
+      </c>
+      <c r="CJ17">
+        <v>3</v>
+      </c>
+      <c r="CK17">
+        <v>3</v>
+      </c>
+      <c r="CL17">
+        <v>3</v>
+      </c>
+      <c r="CM17">
+        <v>3</v>
+      </c>
+      <c r="CN17">
+        <v>3</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DF17">
+        <v>0</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>0</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DN17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>0</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+      <c r="DQ17">
+        <v>0</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17">
+        <v>0</v>
+      </c>
+      <c r="DT17">
+        <v>0</v>
+      </c>
+      <c r="DU17">
+        <v>0</v>
+      </c>
+      <c r="DV17">
+        <v>0</v>
+      </c>
+      <c r="DW17">
+        <v>0</v>
+      </c>
+      <c r="DX17">
+        <v>0</v>
+      </c>
+      <c r="DY17">
+        <v>0</v>
+      </c>
+      <c r="DZ17">
+        <v>0</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="EC17">
+        <v>0</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17">
+        <v>0</v>
+      </c>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EI17">
+        <v>0</v>
+      </c>
+      <c r="EJ17">
+        <v>0</v>
+      </c>
+      <c r="EK17">
+        <v>0</v>
+      </c>
+      <c r="EL17">
+        <v>0</v>
+      </c>
+      <c r="EM17">
+        <v>0</v>
+      </c>
+      <c r="EN17">
+        <v>0</v>
+      </c>
+      <c r="EO17">
+        <v>0</v>
+      </c>
+      <c r="EP17">
+        <v>0</v>
+      </c>
+      <c r="EQ17">
+        <v>0</v>
+      </c>
+      <c r="ER17">
+        <v>0</v>
+      </c>
+      <c r="ES17">
+        <v>0</v>
+      </c>
+      <c r="ET17">
+        <v>0</v>
+      </c>
+      <c r="EU17">
+        <v>0</v>
+      </c>
+      <c r="EV17">
+        <v>0</v>
+      </c>
+      <c r="EW17">
+        <v>0</v>
+      </c>
+      <c r="EX17">
+        <v>0</v>
+      </c>
+      <c r="EY17">
+        <v>0</v>
+      </c>
+      <c r="EZ17">
+        <v>0</v>
+      </c>
+      <c r="FA17">
+        <v>0</v>
+      </c>
+      <c r="FB17">
+        <v>0</v>
+      </c>
+      <c r="FC17">
+        <v>2</v>
+      </c>
+      <c r="FD17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:160" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
         <v>5</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC18" s="1">
         <v>5</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD18" s="1">
         <v>5</v>
       </c>
-      <c r="AD16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CD16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CL16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY16" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DU16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DV16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DX16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DY16" s="1">
-        <v>1</v>
-      </c>
-      <c r="DZ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="ED16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EF16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EH16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EK16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EL16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="ER16" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES16" s="1">
-        <v>1</v>
-      </c>
-      <c r="ET16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EU16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EV16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EX16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EY16" s="1">
-        <v>1</v>
-      </c>
-      <c r="EZ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="FA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="FB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="FC16" s="1">
-        <v>1</v>
-      </c>
-      <c r="FD16" s="1">
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="ED18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="ER18" s="1">
+        <v>1</v>
+      </c>
+      <c r="ES18" s="1">
+        <v>1</v>
+      </c>
+      <c r="ET18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="EZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="FA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="FB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="FC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="FD18" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="17" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/C++2DBasis001/data/MAP/map.xlsx
+++ b/C++2DBasis001/data/MAP/map.xlsx
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="BN1" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="CP18" sqref="CP18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="DM1" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="EF17" sqref="EF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -502,16 +502,16 @@
         <v>0</v>
       </c>
       <c r="AV1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1" s="1">
         <v>0</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="BG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK1" s="1">
         <v>1</v>
@@ -637,127 +637,127 @@
         <v>6</v>
       </c>
       <c r="CO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED1" s="1">
         <v>1</v>
@@ -1258,8 +1258,8 @@
       <c r="EF2">
         <v>0</v>
       </c>
-      <c r="EG2">
-        <v>0</v>
+      <c r="EG2" s="1">
+        <v>1</v>
       </c>
       <c r="EH2">
         <v>0</v>
@@ -1740,8 +1740,8 @@
       <c r="EF3">
         <v>0</v>
       </c>
-      <c r="EG3">
-        <v>0</v>
+      <c r="EG3" s="1">
+        <v>1</v>
       </c>
       <c r="EH3">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DL4">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DS4">
         <v>0</v>
@@ -2222,8 +2222,8 @@
       <c r="EF4">
         <v>0</v>
       </c>
-      <c r="EG4">
-        <v>0</v>
+      <c r="EG4" s="1">
+        <v>1</v>
       </c>
       <c r="EH4">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2704,8 +2704,8 @@
       <c r="EF5">
         <v>0</v>
       </c>
-      <c r="EG5">
-        <v>0</v>
+      <c r="EG5" s="1">
+        <v>1</v>
       </c>
       <c r="EH5">
         <v>0</v>
@@ -2941,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
         <v>5</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -3186,8 +3186,8 @@
       <c r="EF6">
         <v>0</v>
       </c>
-      <c r="EG6">
-        <v>0</v>
+      <c r="EG6" s="1">
+        <v>1</v>
       </c>
       <c r="EH6">
         <v>0</v>
@@ -3668,8 +3668,8 @@
       <c r="EF7">
         <v>0</v>
       </c>
-      <c r="EG7">
-        <v>0</v>
+      <c r="EG7" s="1">
+        <v>1</v>
       </c>
       <c r="EH7">
         <v>0</v>
@@ -3737,7 +3737,7 @@
       <c r="FC7">
         <v>0</v>
       </c>
-      <c r="FD7">
+      <c r="FD7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4150,8 +4150,8 @@
       <c r="EF8">
         <v>0</v>
       </c>
-      <c r="EG8">
-        <v>0</v>
+      <c r="EG8" s="1">
+        <v>1</v>
       </c>
       <c r="EH8">
         <v>0</v>
@@ -4219,7 +4219,7 @@
       <c r="FC8">
         <v>0</v>
       </c>
-      <c r="FD8">
+      <c r="FD8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4632,8 +4632,8 @@
       <c r="EF9">
         <v>0</v>
       </c>
-      <c r="EG9">
-        <v>0</v>
+      <c r="EG9" s="1">
+        <v>1</v>
       </c>
       <c r="EH9">
         <v>0</v>
@@ -5114,8 +5114,8 @@
       <c r="EF10">
         <v>0</v>
       </c>
-      <c r="EG10">
-        <v>0</v>
+      <c r="EG10" s="1">
+        <v>1</v>
       </c>
       <c r="EH10">
         <v>0</v>
@@ -5357,22 +5357,22 @@
         <v>0</v>
       </c>
       <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
         <v>4</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
       </c>
       <c r="BK11">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="BZ11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -5432,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
         <v>3</v>
       </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
       <c r="CF11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
         <v>3</v>
       </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
       <c r="CL11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM11">
         <v>0</v>
@@ -5596,8 +5596,8 @@
       <c r="EF11">
         <v>0</v>
       </c>
-      <c r="EG11">
-        <v>0</v>
+      <c r="EG11" s="1">
+        <v>1</v>
       </c>
       <c r="EH11">
         <v>0</v>
@@ -5947,10 +5947,10 @@
         <v>1</v>
       </c>
       <c r="CO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ12">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="CS12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CT12">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="CV12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CW12">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="CY12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CZ12">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="DB12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="DE12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DF12">
         <v>0</v>
@@ -6078,8 +6078,8 @@
       <c r="EF12">
         <v>0</v>
       </c>
-      <c r="EG12">
-        <v>0</v>
+      <c r="EG12" s="1">
+        <v>1</v>
       </c>
       <c r="EH12">
         <v>0</v>
@@ -6560,8 +6560,8 @@
       <c r="EF13">
         <v>0</v>
       </c>
-      <c r="EG13">
-        <v>0</v>
+      <c r="EG13" s="1">
+        <v>1</v>
       </c>
       <c r="EH13">
         <v>0</v>
@@ -7042,8 +7042,8 @@
       <c r="EF14">
         <v>0</v>
       </c>
-      <c r="EG14">
-        <v>0</v>
+      <c r="EG14" s="1">
+        <v>1</v>
       </c>
       <c r="EH14">
         <v>0</v>
@@ -7275,20 +7275,20 @@
         <v>0</v>
       </c>
       <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
         <v>4</v>
       </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
       <c r="BD15">
         <v>0</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="DH15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DI15">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="DP15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DQ15">
         <v>0</v>
@@ -7532,8 +7532,8 @@
       <c r="EF15">
         <v>0</v>
       </c>
-      <c r="EG15">
-        <v>0</v>
+      <c r="EG15" s="1">
+        <v>1</v>
       </c>
       <c r="EH15">
         <v>0</v>
@@ -8014,8 +8014,8 @@
       <c r="EF16">
         <v>0</v>
       </c>
-      <c r="EG16">
-        <v>0</v>
+      <c r="EG16" s="1">
+        <v>1</v>
       </c>
       <c r="EH16">
         <v>0</v>
@@ -8494,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="EF17">
-        <v>0</v>
-      </c>
-      <c r="EG17">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="EG17" s="1">
+        <v>1</v>
       </c>
       <c r="EH17">
         <v>0</v>
@@ -8685,10 +8685,10 @@
         <v>3</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="1">
         <v>1</v>
@@ -8697,10 +8697,10 @@
         <v>3</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="1">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="AU18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV18" s="1">
         <v>1</v>
@@ -8718,16 +8718,16 @@
         <v>1</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -8751,16 +8751,16 @@
         <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="1">
         <v>1</v>
@@ -8853,121 +8853,121 @@
         <v>0</v>
       </c>
       <c r="CQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED18" s="1">
         <v>1</v>
